--- a/Workspace/Design/CDD_RL.xlsx
+++ b/Workspace/Design/CDD_RL.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\software\Air-Conditioner-Screen-Team-4\Workspace\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismail samy\Desktop\GIT\Workspace\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DF811D2A-C044-4567-AB87-2B1FE9F5B071}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Air Conditioner Screen Review Log</t>
   </si>
@@ -106,12 +110,27 @@
   </si>
   <si>
     <t>RV_4</t>
+  </si>
+  <si>
+    <t>RV_5</t>
+  </si>
+  <si>
+    <t>CDD_LCD Dynamic Design</t>
+  </si>
+  <si>
+    <t>CDD_LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saber Osamn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 4.1(mode management) missing, section 4.2(sequence diagram)missing, shared resources describe if needed or no ! And protection section, sec 6.2 and 6.3 (link time, post build) franko arabic not accebtable </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
@@ -218,11 +237,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -268,6 +284,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,6 +371,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,363 +682,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="76.7109375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>43210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="21">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+    <row r="12" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="6" t="s">
+    <row r="26" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="6" t="s">
+      <c r="A33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1017,7 +1065,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$2</xm:f>
           </x14:formula1>
@@ -1026,7 +1074,7 @@
           </x14:formula2>
           <xm:sqref>D31:D33 D13:D29 D3:D4 D7:D11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'[CDD_RL-1.xlsx]Sheet1'!#REF!</xm:f>
           </x14:formula1>
@@ -1042,25 +1090,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" activeCellId="2" sqref="A4:F4 G4 C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1025" width="8.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Workspace/Design/CDD_RL.xlsx
+++ b/Workspace/Design/CDD_RL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismail samy\Desktop\GIT\Workspace\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1591A8BF-CBD3-4CE8-BDEB-FDAD433C2E8E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EFA1AE1E-5DE6-4749-A656-3A567FEAAF24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet2"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -686,7 +688,7 @@
   <dimension ref="A1:AMK34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Workspace/Design/CDD_RL.xlsx
+++ b/Workspace/Design/CDD_RL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t xml:space="preserve">Air Conditioner Screen Review Log</t>
   </si>
@@ -50,7 +50,19 @@
     <t xml:space="preserve">RV_1</t>
   </si>
   <si>
+    <t xml:space="preserve">configuration parameters section is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDD_OS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youssef Medhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are no configuration parameters added in the document</t>
   </si>
   <si>
     <t xml:space="preserve">20/04/2018</t>
@@ -76,7 +88,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,11 +134,6 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,11 +234,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,18 +333,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A33:A60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="76.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
   </cols>
   <sheetData>
@@ -383,25 +386,33 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -1425,13 +1436,13 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
+      <c r="A5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -2459,7 +2470,7 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -3487,7 +3498,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -4515,7 +4526,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -5543,7 +5554,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -6571,7 +6582,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -7599,7 +7610,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -8622,13 +8633,13 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -9653,10 +9664,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -10681,10 +10692,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -11709,10 +11720,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -12737,10 +12748,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -13765,10 +13776,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -14793,10 +14804,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -15821,10 +15832,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -16849,10 +16860,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -17877,10 +17888,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -18905,10 +18916,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -19933,10 +19944,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -20961,10 +20972,10 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -21989,10 +22000,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
@@ -23017,10 +23028,10 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
@@ -24045,10 +24056,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -25073,10 +25084,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
@@ -26099,13 +26110,13 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
@@ -27129,10 +27140,10 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -28157,9 +28168,9 @@
     </row>
     <row r="33" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
@@ -28206,7 +28217,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A33:A60 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28215,13 +28226,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
+      <c r="A1" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>12</v>
+      <c r="A2" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Workspace/Design/CDD_RL.xlsx
+++ b/Workspace/Design/CDD_RL.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\software\Air-Conditioner-Screen-Team-4\Workspace\Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,104 +25,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Air Conditioner Screen Review Log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue Descripton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration parameters section is missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDD_OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youssef Medhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are no configuration parameters added in the document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/04/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration constrains section is missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are no configuration constrains added to the document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+  <si>
+    <t>Air Conditioner Screen Review Log</t>
+  </si>
+  <si>
+    <t>Review ID</t>
+  </si>
+  <si>
+    <t>Issue Descripton</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>RV_1</t>
+  </si>
+  <si>
+    <t>configuration parameters section is missing</t>
+  </si>
+  <si>
+    <t>CDD_OS</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>Youssef Medhat</t>
+  </si>
+  <si>
+    <t>there are no configuration parameters added in the document</t>
+  </si>
+  <si>
+    <t>20/04/2018</t>
+  </si>
+  <si>
+    <t>RV_2</t>
+  </si>
+  <si>
+    <t>configuration constrains section is missing</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>there are no configuration constrains added to the document</t>
+  </si>
+  <si>
+    <t>RV_3</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>CDD_Buzzer Missing points in some sections.</t>
+  </si>
+  <si>
+    <t>CDD_Buzzer</t>
+  </si>
+  <si>
+    <t>Ismail Samy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In section 3.5 Interface (Services) missing description of last 4 rows which should be filled. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In section 6.2 and 6.3 Configuration Parameters, The comments should be formal not in franko. </t>
+  </si>
+  <si>
+    <t>RV_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="178"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,7 +130,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
@@ -153,6 +155,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -174,118 +182,98 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -344,45 +332,353 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="A4:F4 G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="76.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" style="2" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -405,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -428,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -451,25 +747,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="20">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -477,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -485,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -493,7 +817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -501,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -509,8 +833,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6"/>
@@ -518,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="6"/>
@@ -526,7 +850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6"/>
@@ -534,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6"/>
@@ -542,7 +866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6"/>
@@ -550,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6"/>
@@ -558,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6"/>
@@ -566,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
@@ -574,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="13"/>
       <c r="C21" s="6"/>
@@ -582,7 +906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="13"/>
       <c r="C22" s="6"/>
@@ -590,7 +914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6"/>
@@ -598,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="6"/>
@@ -606,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6"/>
@@ -614,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="6"/>
@@ -622,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
@@ -630,7 +954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="6"/>
@@ -638,7 +962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="13"/>
       <c r="C29" s="6"/>
@@ -646,8 +970,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" s="14" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="10" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -655,15 +979,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="13"/>
       <c r="D32" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="C33" s="13"/>
       <c r="D33" s="6" t="s">
@@ -683,62 +1007,65 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D11 D13:D29 D31:D33" type="list">
-      <formula1>Sheet1!$A$1:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D31:D33 D13:D29 D3:D4 D7:D11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[CDD_RL-1.xlsx]Sheet1'!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D5:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="2" sqref="A4:F4 G4 C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" activeCellId="2" sqref="A4:F4 G4 C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="10" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Workspace/Design/CDD_RL.xlsx
+++ b/Workspace/Design/CDD_RL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\software\Air-Conditioner-Screen-Team-4\Workspace\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>Air Conditioner Screen Review Log</t>
   </si>
@@ -106,6 +109,42 @@
   </si>
   <si>
     <t>RV_4</t>
+  </si>
+  <si>
+    <t>RV_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara Rashwan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2.1.1 miss the "cover" point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDD_Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 5 is empty </t>
+  </si>
+  <si>
+    <t>CDD_Buttton</t>
+  </si>
+  <si>
+    <t>section 9 (history) had not been updated</t>
+  </si>
+  <si>
+    <t>RV_6</t>
+  </si>
+  <si>
+    <t>RV_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDD_Button is Missing two points in section 5 </t>
+  </si>
+  <si>
+    <t>CDD_Button is Missing point in section 2</t>
+  </si>
+  <si>
+    <t>CDD_Button history is empty</t>
   </si>
 </sst>
 </file>
@@ -218,11 +257,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -268,6 +304,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,6 +394,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,359 +709,404 @@
   <dimension ref="A1:AMK34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="76.7109375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>43210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="21">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="22">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="22">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+    <row r="12" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="6" t="s">
+    <row r="26" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="6" t="s">
+      <c r="A33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1051,16 +1152,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1025" width="8.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Workspace/Design/CDD_RL.xlsx
+++ b/Workspace/Design/CDD_RL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\Desktop\TORT\Air-Conditioner-Screen-Team-4\Workspace\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Air Conditioner Screen Review Log</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>CDD_Button history is empty</t>
+  </si>
+  <si>
+    <t>RV_8</t>
   </si>
 </sst>
 </file>
@@ -304,13 +307,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,7 +712,7 @@
   <dimension ref="A1:AMK34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -724,15 +727,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -868,7 +871,7 @@
       <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>43210</v>
       </c>
     </row>
@@ -891,7 +894,7 @@
       <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>43210</v>
       </c>
     </row>
@@ -914,12 +917,14 @@
       <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>43210</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
